--- a/biology/Botanique/Burkillanthus_malaccensis/Burkillanthus_malaccensis.xlsx
+++ b/biology/Botanique/Burkillanthus_malaccensis/Burkillanthus_malaccensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burkillanthus malaccensis est une espèce de plantes à fleurs du genre Burkillanthus de la famille des Rutaceae, originaire de Sumatra et jadis présent dans le Sarawak (Malaisie) dont il a disparu (un seul spécimen collecté en 1961)[1]. C'est un arbre et c'est l'unique espèce de son genre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burkillanthus malaccensis est une espèce de plantes à fleurs du genre Burkillanthus de la famille des Rutaceae, originaire de Sumatra et jadis présent dans le Sarawak (Malaisie) dont il a disparu (un seul spécimen collecté en 1961). C'est un arbre et c'est l'unique espèce de son genre.
 </t>
         </is>
       </c>
@@ -511,13 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burkillanthus malaccensis (Ridl.) Swingle a été publié en 1938 et 39[2]. Le nom est admis[3].
-Swingle crée le genre Burkillanthus mais il se fonde entièrement sur la description de Ridley[4] (1922) de Citrus malaccensis. Burkill en 1931 écrit à son sujet : «Les caractères de cette plante extrêmement intéressante n'ont pas été mis en évidence. Il a été récolté en 1893 deux fois à l'intérieur du Territoire de Malacca, [ ] Derry l'a obtenu avec des fleurs en janvier et Goodenough avec des fruits en juillet. La localité de Derry est donnée comme Bukit Sedanan; Goodenough est comme Nyalas : ces endroits sont distants de 6 à 8 milles»[5]. La plante avait été introduite aux USA en sous forme de graine en 1941 par Burkill qui était directeur du Jardin botanique de Singapour[6]. Le genre lui doit son nom.
-Swingle (1939) le considère «comme représentant un développement évolutif rapide d'une forme ancestrale beaucoup plus simple qui ressemblait probablement un peu à une espèce de Pleiospermium à 1 3 folioles», ce qui lui évoque les genres apparentés Swinglea aux Philippines, Merrillia de l'archipel malais et de Sumatra...«évolution divergente rapide aboutissant non pas à un groupe d'espèces ou de genres mais, dans chaque cas, à un seul genre monotypique aberrant»[7].
-Nom commun
-En malais Rumutuat[8], en anglais: Malay ghostlime (lime fantôme malaise).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burkillanthus malaccensis (Ridl.) Swingle a été publié en 1938 et 39. Le nom est admis.
+Swingle crée le genre Burkillanthus mais il se fonde entièrement sur la description de Ridley (1922) de Citrus malaccensis. Burkill en 1931 écrit à son sujet : «Les caractères de cette plante extrêmement intéressante n'ont pas été mis en évidence. Il a été récolté en 1893 deux fois à l'intérieur du Territoire de Malacca, [ ] Derry l'a obtenu avec des fleurs en janvier et Goodenough avec des fruits en juillet. La localité de Derry est donnée comme Bukit Sedanan; Goodenough est comme Nyalas : ces endroits sont distants de 6 à 8 milles». La plante avait été introduite aux USA en sous forme de graine en 1941 par Burkill qui était directeur du Jardin botanique de Singapour. Le genre lui doit son nom.
+Swingle (1939) le considère «comme représentant un développement évolutif rapide d'une forme ancestrale beaucoup plus simple qui ressemblait probablement un peu à une espèce de Pleiospermium à 1 3 folioles», ce qui lui évoque les genres apparentés Swinglea aux Philippines, Merrillia de l'archipel malais et de Sumatra...«évolution divergente rapide aboutissant non pas à un groupe d'espèces ou de genres mais, dans chaque cas, à un seul genre monotypique aberrant».
 </t>
         </is>
       </c>
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un arbre d'environ 15 m de haut à tiges multiples d'environ 12 cm de diamètre, tronc et branches épineux. La feuille est composée, folioles opposées à long pétiole ailé. Les fleurs bisexuées, pédoncule d'environ 10 cm de long, à 5 pétales et 5 sépales distincts et 10 étamines à filamenteuses.
-Le fruit est une baie charnue au péricarpe épais et dur, 5 loges, nombreuses graines.
+          <t>Nom commun</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En malais Rumutuat, en anglais: Malay ghostlime (lime fantôme malaise).
 </t>
         </is>
       </c>
@@ -575,12 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitat est les berges humides et les reliefs des forêts primaires et secondaires.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre d'environ 15 m de haut à tiges multiples d'environ 12 cm de diamètre, tronc et branches épineux. La feuille est composée, folioles opposées à long pétiole ailé. Les fleurs bisexuées, pédoncule d'environ 10 cm de long, à 5 pétales et 5 sépales distincts et 10 étamines à filamenteuses.
+Le fruit est une baie charnue au péricarpe épais et dur, 5 loges, nombreuses graines.
 </t>
         </is>
       </c>
@@ -606,13 +626,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat est les berges humides et les reliefs des forêts primaires et secondaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Burkillanthus_malaccensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Burkillanthus_malaccensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est sensible à Liberibacter asiaticus Huanglongbing[9].
-Le pouvoir bactéricide de l'extrait de B. malaccencis a été démontré (2022) pour Staphylococcus aureus, Escherichia coli et Pseudomonas aeruginosa avec les concentrations minimales inhibitrices de 250–500 - 250 µg/mL. L'extrait chloroformique potentialise l'imipénèm contre les Acinetobacter baumannii résistants à l'imipénèm[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est sensible à Liberibacter asiaticus Huanglongbing.
+Le pouvoir bactéricide de l'extrait de B. malaccencis a été démontré (2022) pour Staphylococcus aureus, Escherichia coli et Pseudomonas aeruginosa avec les concentrations minimales inhibitrices de 250–500 - 250 µg/mL. L'extrait chloroformique potentialise l'imipénèm contre les Acinetobacter baumannii résistants à l'imipénèm.
 </t>
         </is>
       </c>
